--- a/public/sheets/ranking.xlsx
+++ b/public/sheets/ranking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Angold4/WorkSpace/compass-ui/public/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7599DB2-7499-D948-B9F5-922BEDA49751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9312DC-51CF-3449-A3FC-442151E5E663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="6400" windowWidth="27240" windowHeight="16440" xr2:uid="{C4CD000A-9AC9-6A49-B7EF-3DE59E545CB4}"/>
+    <workbookView xWindow="29160" yWindow="28240" windowWidth="27240" windowHeight="16440" xr2:uid="{C4CD000A-9AC9-6A49-B7EF-3DE59E545CB4}"/>
   </bookViews>
   <sheets>
     <sheet name="PnL" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -187,6 +187,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -38977,18 +38980,19 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3">
@@ -38996,25 +39000,25 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
